--- a/data_example/gas_network/data_gas_champignac.xlsx
+++ b/data_example/gas_network/data_gas_champignac.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Enerapi\code\OSEM-example\data_example\gas_network\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3139B1C-622A-4264-8C67-466B4371875B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="data_gas_champignac" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="data_gas_champignac" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="10">
   <si>
     <t>pressure_s</t>
   </si>
@@ -39,40 +49,30 @@
     <t>0</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS" numFmtId="166"/>
-    <numFmt formatCode="HH:MM:SS" numFmtId="167"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS.000" numFmtId="168"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -81,35 +81,336 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="164">
-</xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" xfId="0"/>
-    <xf numFmtId="165" xfId="0"/>
-    <xf numFmtId="166" xfId="0"/>
-    <xf numFmtId="167" xfId="0"/>
-    <xf numFmtId="168" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1024" width="15"/>
-    <col min="2" max="1024" width="15"/>
-    <col min="3" max="1024" width="15"/>
-    <col min="4" max="1024" width="15"/>
-    <col min="5" max="1024" width="15"/>
-    <col min="6" max="1024" width="15"/>
-    <col min="7" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -132,7 +433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -155,7 +456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -178,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -201,7 +502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -220,11 +521,11 @@
       <c r="F5">
         <v>1123115</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -247,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -270,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -293,7 +594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -316,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -335,11 +636,11 @@
       <c r="F10">
         <v>1123502</v>
       </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -362,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -385,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -408,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -431,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -450,11 +751,11 @@
       <c r="F15">
         <v>1122023</v>
       </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="G15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -477,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -500,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -520,10 +821,10 @@
         <v>1120004</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -546,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -569,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -592,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -615,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -638,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -661,7 +962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -680,11 +981,11 @@
       <c r="F25">
         <v>1119864</v>
       </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="G25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -707,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -730,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -753,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -776,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -799,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -822,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -845,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -868,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -891,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -914,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -937,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -960,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -983,7 +1284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1117,11 +1418,11 @@
       <c r="F44">
         <v>1118726</v>
       </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="G44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1191,5 +1492,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>